--- a/java-multithreading-cpu-results.xlsx
+++ b/java-multithreading-cpu-results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lepester\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lepester\Desktop\java-multithreading-cpu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F9CF7B-51B4-411C-9587-6263B05011DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B862B09-F4DB-44E3-972F-1D4FD1F84BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{962B5182-E1EE-4A33-98B1-E7297317A33A}"/>
   </bookViews>
@@ -34,24 +34,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>time(ms)</t>
   </si>
   <si>
     <t>threads count</t>
   </si>
+  <si>
+    <t>Processor model: AMD Ryzen 5 3600</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -75,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1326,15 +1339,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43BB42C-6E2E-496C-BB3A-41CB611A3955}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1409,8 +1422,14 @@
         <v>1326</v>
       </c>
     </row>
+    <row r="18" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>